--- a/1er_cuatrimestre/sist_contable/2_unidad/trabajo_practico/Trabajo_práctico-asientos.xlsx
+++ b/1er_cuatrimestre/sist_contable/2_unidad/trabajo_practico/Trabajo_práctico-asientos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Inst\Sistemas_contables\Unidad2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\REPOSITORIOS\repos_facu\3er_anho\1er_cuatrimestre\sist_contable\2_unidad\trabajo_practico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AA3474-929F-4005-992B-3753B6F02DBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87FC13A-EB23-4F00-908C-A05A1D30972F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7772E427-C1A6-4502-A20B-8E0D259B8C62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7772E427-C1A6-4502-A20B-8E0D259B8C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>FECHA</t>
   </si>
@@ -41,24 +41,6 @@
     <t>NRO REGISTRO</t>
   </si>
   <si>
-    <t xml:space="preserve">Factura original de compra del producto A a 20 pesos cada una. Se abona mitad efectivo y mitad con cheque. </t>
-  </si>
-  <si>
-    <t>Aporte de socios de $30.000 para compra de Instalaciones por $10.000. Dinero en efectivo en caja por $15.000 y depósito en banco por 5000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Factura original. Compra de instalaciones por $3000. Se abona $500 en efectivo, $1500 con cheque y $1000 con pagaré con $40  de intereses. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Factura duplicada. Venta de 50 unidades del producto A a $25 por unidad.  Nos pagan al contado efectivo. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Factura original. Compra de mercaderias. 300 unidades del producto A a $ 20 sin documentar. Cta Cte del proveedor. </t>
-  </si>
-  <si>
-    <t>Factura duplicada. Venta de 200 unidades del producto A a $ 25 por unidad.  Nos pagan al contado efectivo $ 700  - $4000 con cheque - descuento de $ 300</t>
-  </si>
-  <si>
     <t xml:space="preserve">Depósito en cta cte Banco de un cheque de $ 4000 y $ 500 en efectivo. </t>
   </si>
   <si>
@@ -72,6 +54,33 @@
   </si>
   <si>
     <t>Cobramos un alquiler por $ 4000, $2000 en efectivo y $2000 con cheque.</t>
+  </si>
+  <si>
+    <t>Aporte de socios de $30.000 para compra de Instalaciones por $10.000. Dinero en efectivo en
+caja por $15.000 y depósito en banco por 5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factura original de compra del producto A a 20 pesos cada una. Se abona mitad efectivo y mitad
+ con cheque. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factura original. Compra de instalaciones por $3000. Se abona $500 en efectivo, $1500 con 
+cheque y $1000 con pagaré con $40  de intereses. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factura duplicada. Venta de 50 unidades del producto A a $25 por unidad.  Nos pagan al contado 
+efectivo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factura original. Compra de mercaderias. 300 unidades del producto A a $ 20 sin documentar. 
+Cuenta Corriente del proveedor. </t>
+  </si>
+  <si>
+    <t>Factura duplicada. Venta de 200 unidades del producto A a $ 25 por unidad.  Nos pagan al contado 
+efectivo $ 700  - $4000 con cheque - descuento de $ 300</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
   </si>
 </sst>
 </file>
@@ -107,9 +116,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,146 +446,152 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634CB320-D077-4CF4-A785-A3C5E6534657}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="13" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="90.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>44170</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44172</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44173</v>
+      </c>
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>44172</v>
-      </c>
-      <c r="B3">
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44174</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>44173</v>
-      </c>
-      <c r="B4">
+    </row>
+    <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>44174</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>44175</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>44188</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>44180</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>44185</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>44185</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>44186</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>44187</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>44188</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/1er_cuatrimestre/sist_contable/2_unidad/trabajo_practico/Trabajo_práctico-asientos.xlsx
+++ b/1er_cuatrimestre/sist_contable/2_unidad/trabajo_practico/Trabajo_práctico-asientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\REPOSITORIOS\repos_facu\3er_anho\1er_cuatrimestre\sist_contable\2_unidad\trabajo_practico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87FC13A-EB23-4F00-908C-A05A1D30972F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD98658-491F-4DFC-B4BA-53856D16DF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7772E427-C1A6-4502-A20B-8E0D259B8C62}"/>
   </bookViews>
@@ -104,12 +104,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -118,16 +133,16 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -447,7 +462,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/1er_cuatrimestre/sist_contable/2_unidad/trabajo_practico/Trabajo_práctico-asientos.xlsx
+++ b/1er_cuatrimestre/sist_contable/2_unidad/trabajo_practico/Trabajo_práctico-asientos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\REPOSITORIOS\repos_facu\3er_anho\1er_cuatrimestre\sist_contable\2_unidad\trabajo_practico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD98658-491F-4DFC-B4BA-53856D16DF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159FA39A-0D60-4CA0-A585-04E57DC57D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7772E427-C1A6-4502-A20B-8E0D259B8C62}"/>
+    <workbookView xWindow="180" yWindow="1140" windowWidth="21600" windowHeight="11835" xr2:uid="{7772E427-C1A6-4502-A20B-8E0D259B8C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -56,38 +56,32 @@
     <t>Cobramos un alquiler por $ 4000, $2000 en efectivo y $2000 con cheque.</t>
   </si>
   <si>
-    <t>Aporte de socios de $30.000 para compra de Instalaciones por $10.000. Dinero en efectivo en
-caja por $15.000 y depósito en banco por 5000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Factura original de compra del producto A a 20 pesos cada una. Se abona mitad efectivo y mitad
- con cheque. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Factura original. Compra de instalaciones por $3000. Se abona $500 en efectivo, $1500 con 
-cheque y $1000 con pagaré con $40  de intereses. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Factura duplicada. Venta de 50 unidades del producto A a $25 por unidad.  Nos pagan al contado 
-efectivo. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Factura original. Compra de mercaderias. 300 unidades del producto A a $ 20 sin documentar. 
-Cuenta Corriente del proveedor. </t>
-  </si>
-  <si>
-    <t>Factura duplicada. Venta de 200 unidades del producto A a $ 25 por unidad.  Nos pagan al contado 
-efectivo $ 700  - $4000 con cheque - descuento de $ 300</t>
-  </si>
-  <si>
     <t>Descripcion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factura original de compra del producto A a 20 pesos cada una. 100 Unidades. Se abona mitad efectivo y mitad  con cheque. </t>
+  </si>
+  <si>
+    <t>Aporte de socios de $30.000 para compra de Instalaciones por $10.000. Dinero en efectivo en caja por $15.000 y depósito en banco por 5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factura original. Compra de instalaciones por $3000. Se abona $500 en efectivo, $1500 con cheque y $1000 con pagaré con $40  de intereses. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factura duplicada. Venta de 50 unidades del producto A a $25 por unidad.  Nos pagan al contado efectivo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factura original. Compra de mercaderias. 300 unidades del producto A a $ 20 sin documentar. Cuenta Corriente del proveedor. </t>
+  </si>
+  <si>
+    <t>Factura duplicada. Venta de 200 unidades del producto A a $ 25 por unidad.  Nos pagan al contado efectivo $ 700  - $4000 con cheque - descuento de $ 300</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,13 +89,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -131,18 +139,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -461,16 +473,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634CB320-D077-4CF4-A785-A3C5E6534657}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="90.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="136.28515625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="19.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -481,127 +495,127 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>44170</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>44172</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>44173</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>44174</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>44175</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>44180</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>44170</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>44185</v>
+      </c>
+      <c r="B8" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>44172</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="C8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>44185</v>
+      </c>
+      <c r="B9" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>44173</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="C9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B10" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>44174</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="C10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>44187</v>
+      </c>
+      <c r="B11" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>44175</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="C11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>44188</v>
+      </c>
+      <c r="B12" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>44180</v>
-      </c>
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>44185</v>
-      </c>
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>44185</v>
-      </c>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>44186</v>
-      </c>
-      <c r="B10" s="1">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>44187</v>
-      </c>
-      <c r="B11" s="1">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>44188</v>
-      </c>
-      <c r="B12" s="1">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="6" t="s">
         <v>6</v>
       </c>
     </row>
